--- a/yield_prediction/results/graph_descriptors/WLlinear_6/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLlinear_6/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.507</v>
+        <v>0.512</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.961</v>
+        <v>16.882</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9</v>
+        <v>0.914</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.093999999999999</v>
+        <v>8.412000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.959</v>
+        <v>0.965</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.39</v>
+        <v>4.989</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>14.70738733186583</v>
+        <v>13.56361768959908</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>18.80269680627963</v>
+        <v>18.21080490427275</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>20.34675847291524</v>
+        <v>20.02125495568584</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-1.654689224523533</v>
+        <v>-1.147965269531735</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>20.45119308025403</v>
+        <v>19.88294936964729</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>22.27887830484825</v>
+        <v>21.95159440677543</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.833039495567423</v>
+        <v>2.529417487949871</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>32.26120586337525</v>
+        <v>30.93353074977696</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29.99724352509019</v>
+        <v>29.97679739074055</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>32.92641568568965</v>
+        <v>30.50456861015684</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>38.2042634405623</v>
+        <v>35.80614158177495</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>41.27679995356769</v>
+        <v>38.84976806005246</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>12.37292030151701</v>
+        <v>11.81731336511496</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>29.12890184094364</v>
+        <v>25.80329293150247</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>32.76535954243205</v>
+        <v>30.14280788708722</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>19.15184027625624</v>
+        <v>18.36710565403945</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>37.18634341428652</v>
+        <v>36.12934428961091</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>43.80853289065708</v>
+        <v>44.29037577287254</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6.081104342368292</v>
+        <v>6.038149692927217</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>32.12034413923674</v>
+        <v>30.72042588793113</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>43.23246011858792</v>
+        <v>43.16696677319061</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>7.362355124652758</v>
+        <v>7.104402962429322</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>55.66865736376955</v>
+        <v>53.4719624737388</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>69.31646816366197</v>
+        <v>69.76237265403584</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>57.21520675169903</v>
+        <v>52.73679789256938</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>69.76166646710976</v>
+        <v>66.24579221276083</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>78.07510501116117</v>
+        <v>75.57731789667753</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>20.26187999494602</v>
+        <v>17.43740067222279</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>69.69614663730208</v>
+        <v>67.58239795785244</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>78.76749455497422</v>
+        <v>76.7662690495175</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>28.69036123619087</v>
+        <v>26.80788119262572</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>49.01196039051123</v>
+        <v>47.03484081322349</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>54.11576621953387</v>
+        <v>53.78269363062441</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>9.330686863363127</v>
+        <v>8.992466780701921</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>41.72453730827349</v>
+        <v>39.64484685844687</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>51.92641534896188</v>
+        <v>50.58619306462874</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>15.93700801934028</v>
+        <v>14.82495808041927</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>74.28430359881158</v>
+        <v>70.88858950718544</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>77.94021925670286</v>
+        <v>74.55355262484686</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>85.35771026239459</v>
+        <v>79.86469426382705</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>95.60381500198164</v>
+        <v>91.13309964859614</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>100.5111249376188</v>
+        <v>97.25894917022735</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>34.43184185036536</v>
+        <v>31.94097682071884</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>92.13447700432421</v>
+        <v>88.43475625876346</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>94.37590402968135</v>
+        <v>91.52673414746248</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>8.467252091157356</v>
+        <v>8.165298191447885</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>40.02521867244828</v>
+        <v>40.15063513573907</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>42.08077713775516</v>
+        <v>41.44651269410963</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>3.054700354442563</v>
+        <v>5.132231315472033</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>45.11675585483042</v>
+        <v>43.57206209868315</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>47.85035657213668</v>
+        <v>47.26862909807299</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>3.231117590980592</v>
+        <v>4.783924249872715</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>67.10013045484433</v>
+        <v>65.4795948735774</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>70.49398513207169</v>
+        <v>70.3309524279755</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>62.10180837304893</v>
+        <v>60.50445005040508</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>70.5146726881929</v>
+        <v>68.371400054738</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>71.82226901659091</v>
+        <v>70.03054133552392</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>9.183283552741152</v>
+        <v>8.76829923589618</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>62.32613240597844</v>
+        <v>59.71459938870826</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>66.77339267798939</v>
+        <v>64.68021658282565</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>11.44533887363277</v>
+        <v>11.18308544050313</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>42.36343638794573</v>
+        <v>40.74064759077707</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>46.20207202707273</v>
+        <v>45.53541257242875</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>4.942491126460716</v>
+        <v>5.965871406064927</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>38.6994968787377</v>
+        <v>35.78899700360101</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>48.69203301970138</v>
+        <v>46.92386986262585</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>5.996227205089294</v>
+        <v>6.269376215078566</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>61.79632593247938</v>
+        <v>58.56248763683797</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>76.59165386796215</v>
+        <v>74.72503704111074</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>60.19086858394144</v>
+        <v>56.59557263508661</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>72.81793696291477</v>
+        <v>69.52742098083576</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>76.65296843681486</v>
+        <v>73.82638330028189</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>8.043783865855804</v>
+        <v>7.893771419070863</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>72.42376934074139</v>
+        <v>69.18592011892881</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>78.30132693502122</v>
+        <v>75.69391151721739</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>11.38811051026298</v>
+        <v>11.09666097396265</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>47.08512685903356</v>
+        <v>45.48046807740272</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>51.73431709531742</v>
+        <v>51.09630752016892</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>2.937012203918506</v>
+        <v>4.492453782900053</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>47.33161082449721</v>
+        <v>44.80885314183875</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>56.41772233948136</v>
+        <v>54.55670487749641</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>5.654034052803315</v>
+        <v>5.547461763075507</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>77.39786165706386</v>
+        <v>74.77814540152396</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>88.63134486917401</v>
+        <v>86.93688095186862</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>85.0301795208162</v>
+        <v>80.88741306147826</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>97.75024752990913</v>
+        <v>94.52062684363798</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>98.89391502609611</v>
+        <v>95.79932704507179</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>13.56387191020815</v>
+        <v>10.49534649858602</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>89.40488038043743</v>
+        <v>85.34155290730882</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>92.28638192385431</v>
+        <v>89.38153528409939</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>28.0384723349259</v>
+        <v>28.89025244832365</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>42.16074402504223</v>
+        <v>41.23104975108769</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>44.77936111447574</v>
+        <v>43.42451836635222</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>7.334273301931628</v>
+        <v>7.276370070034901</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>45.69323452036031</v>
+        <v>44.29439653034041</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>47.39895034292006</v>
+        <v>46.56135458769069</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>8.856035844779619</v>
+        <v>8.859770868986473</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>68.21758657513071</v>
+        <v>67.88897936445527</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>66.7421640204613</v>
+        <v>65.71520763965286</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>61.08624928281723</v>
+        <v>59.10105629687685</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>73.24442424225018</v>
+        <v>70.67171524234953</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>71.42088332402366</v>
+        <v>69.20675774289562</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>27.80764709145532</v>
+        <v>25.25371774246907</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>61.76291138695282</v>
+        <v>58.56683925924659</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>63.83888128067187</v>
+        <v>61.11127789986557</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>25.38438644136451</v>
+        <v>25.46347147610332</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>48.0195977270379</v>
+        <v>46.19187835037658</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>49.26014513028919</v>
+        <v>47.67276464104771</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>7.09736381099999</v>
+        <v>7.104812178627508</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>44.6498944000181</v>
+        <v>42.21901015472828</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>50.47038475503887</v>
+        <v>48.86308447340541</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>8.779580438176023</v>
+        <v>8.623923262192381</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>69.89943393553766</v>
+        <v>66.92963792115403</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>78.15945806926104</v>
+        <v>75.55003326511897</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>65.30180327326848</v>
+        <v>61.84581853963522</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>78.08100324700547</v>
+        <v>74.30890961520487</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>78.16320954320747</v>
+        <v>74.84109543309083</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>27.73303141615886</v>
+        <v>26.54388923973669</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>74.36735825266722</v>
+        <v>71.25631689913639</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>76.31005244317961</v>
+        <v>73.47512431039634</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>31.29807045933763</v>
+        <v>31.68894261407232</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>53.56483849924602</v>
+        <v>51.81041950910247</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>54.63006680665288</v>
+        <v>53.67636180257688</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>7.689940403282439</v>
+        <v>7.531388659091458</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>55.17746707555737</v>
+        <v>52.3320780142124</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>57.95087093117356</v>
+        <v>56.26114594246337</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>10.01881769464502</v>
+        <v>9.549304341948808</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>83.85840688914764</v>
+        <v>80.11536427492611</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>85.61364954098775</v>
+        <v>83.42209039336889</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>90.19453792861025</v>
+        <v>86.43539188336992</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>96.70799604141861</v>
+        <v>93.47543486802415</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>100.4860670271008</v>
+        <v>97.46635079647334</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>35.66114803701063</v>
+        <v>33.227498377579</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>93.63127582760158</v>
+        <v>89.35667614944619</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>92.50888929406908</v>
+        <v>89.66004605421243</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>15.20459932289666</v>
+        <v>14.28844267266734</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>20.25907900054167</v>
+        <v>20.40876315244817</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>22.69346371077818</v>
+        <v>22.39788917826565</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>-1.177560695500279</v>
+        <v>-0.8741235976530213</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>21.83122697993873</v>
+        <v>21.30612872548997</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>23.50011591609322</v>
+        <v>22.89736164190779</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>5.341686764906385</v>
+        <v>5.236317855726963</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>31.45111899921837</v>
+        <v>30.37566386392599</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>31.56409388407345</v>
+        <v>31.6159596541164</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>35.42389494141581</v>
+        <v>33.37090380742397</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>39.03552601674503</v>
+        <v>36.1060755910994</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>44.3098050688204</v>
+        <v>41.62459905011691</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>56.37340388344435</v>
+        <v>56.63240726810897</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>65.34907661814771</v>
+        <v>65.90210439330401</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>68.66905816671931</v>
+        <v>67.56266064288495</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>17.85465373875759</v>
+        <v>15.26555601614584</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>38.69930873161495</v>
+        <v>36.644033128327</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>47.79374189913081</v>
+        <v>46.08255191263417</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>6.619429412513323</v>
+        <v>5.294790166182</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>39.0394212149555</v>
+        <v>36.08599167037964</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>50.73375672242841</v>
+        <v>48.79365176446433</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>14.44031544978789</v>
+        <v>13.03484359836861</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>57.24480033086598</v>
+        <v>54.46003779516859</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>72.37802943641107</v>
+        <v>69.29835949302286</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>56.14172176357583</v>
+        <v>51.00483882511017</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>64.33946632903161</v>
+        <v>59.60204179170069</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>72.89038076770741</v>
+        <v>68.3845850454459</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>26.59600316521284</v>
+        <v>21.80940756627626</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>69.72660291053319</v>
+        <v>64.9143224245518</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>77.04152897102176</v>
+        <v>72.32929419629706</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>28.09933931928316</v>
+        <v>26.68676328407731</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>47.30912810327759</v>
+        <v>44.88346546393365</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>52.03103677103033</v>
+        <v>50.59968701996775</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>8.781197973445821</v>
+        <v>8.245971700947969</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>44.33609518914387</v>
+        <v>41.45631151214714</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>53.32185380247893</v>
+        <v>50.77711737304223</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>18.11029297674892</v>
+        <v>16.46640802730485</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>72.42664689835951</v>
+        <v>67.41860794652895</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>77.42530823997019</v>
+        <v>74.00340522961108</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>78.50765054555896</v>
+        <v>72.78262466671643</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>83.50437437662333</v>
+        <v>77.89559385348629</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>93.31496594279211</v>
+        <v>89.1906093690742</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>40.86086499155522</v>
+        <v>36.79644166537223</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>87.90163006250205</v>
+        <v>82.78491508288882</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>92.40330036020254</v>
+        <v>88.82837277078178</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>26.13848206442271</v>
+        <v>24.01618864288674</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>45.61122925243185</v>
+        <v>43.59624636898727</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>43.35494977703802</v>
+        <v>41.71315187134536</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>7.867695055599743</v>
+        <v>7.816170302189416</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>48.5503937262613</v>
+        <v>47.36341307398559</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>48.10859279526559</v>
+        <v>47.42711190152086</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>11.80217234744141</v>
+        <v>10.83005838281622</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>76.87677764705688</v>
+        <v>75.6535532140668</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>68.06416293562162</v>
+        <v>67.35589220688995</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>56.92871984574985</v>
+        <v>56.72827571219654</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>68.62557280921648</v>
+        <v>67.07429246799445</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>69.25426148257696</v>
+        <v>68.69808672189691</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>24.05432540299825</v>
+        <v>22.34938100613128</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>42.08597188207487</v>
+        <v>36.5417146197377</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>40.80027551313978</v>
+        <v>34.72853034500015</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>32.3742089421158</v>
+        <v>31.01975846849166</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>53.35870766983633</v>
+        <v>50.51030201150083</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>52.78877651184162</v>
+        <v>51.04173546945464</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>7.384363523991993</v>
+        <v>7.460539030854452</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>48.21731613854439</v>
+        <v>46.49428763736574</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>54.18009350482783</v>
+        <v>53.84746570944954</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>11.97738716914047</v>
+        <v>11.33474322878855</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>77.02824109941133</v>
+        <v>75.01873219416342</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>79.63354551359801</v>
+        <v>77.67250696548889</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>73.03463480144272</v>
+        <v>68.97514471809816</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>82.12324806562535</v>
+        <v>78.54501830983014</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>85.08715872248023</v>
+        <v>81.24638903072241</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>42.75896663375853</v>
+        <v>41.12144632167881</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>84.87820537639394</v>
+        <v>81.42897580647596</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>37.40091956747536</v>
+        <v>35.51891598476961</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>57.46799764082034</v>
+        <v>55.48981823761519</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>56.93977122950933</v>
+        <v>55.80637627960164</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>7.508460262320625</v>
+        <v>7.897424496597949</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>50.9642526125612</v>
+        <v>49.52406604239263</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>54.19293663715018</v>
+        <v>53.3089651346497</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>12.27413742898382</v>
+        <v>11.68765936236777</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>83.34842913140136</v>
+        <v>80.56986303098951</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>85.43281878185303</v>
+        <v>84.31672335660267</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>91.68380196296775</v>
+        <v>88.17323626733237</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>95.95833208406643</v>
+        <v>92.37101918915126</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>101.4340167184923</v>
+        <v>97.43832187346995</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>47.90101853713766</v>
+        <v>46.07590517762587</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>97.3861888953809</v>
+        <v>93.50244617813112</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>98.01830699031046</v>
+        <v>95.48437367589914</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>22.41335883500271</v>
+        <v>20.84787134858619</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>35.12548229509125</v>
+        <v>33.47419860618366</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>41.24043564700222</v>
+        <v>39.3387569313243</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>6.175990899222867</v>
+        <v>5.421607837627796</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>47.57300887184347</v>
+        <v>45.84360505243166</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>47.42626837009486</v>
+        <v>46.94717723027823</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>8.576509709390496</v>
+        <v>7.699166820517444</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>74.53555362266694</v>
+        <v>73.74970803840056</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>70.81470483901528</v>
+        <v>70.07163467134944</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>53.90776621805507</v>
+        <v>54.28434471585263</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>62.07246864928814</v>
+        <v>61.70339460346517</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>63.65721596914707</v>
+        <v>63.70054196751695</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>14.69439365927967</v>
+        <v>13.39149898883353</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>26.96619412964047</v>
+        <v>20.61461191702169</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>25.88935216313123</v>
+        <v>20.56818572037249</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>26.33046871706883</v>
+        <v>24.93507471193491</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>51.98564425179083</v>
+        <v>49.89474671539675</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>53.83424912816056</v>
+        <v>51.81427705734433</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>6.692611633316769</v>
+        <v>7.014976372937749</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>48.04797882985846</v>
+        <v>46.52517548097495</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>53.4334430910966</v>
+        <v>52.52440251723561</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>8.620991371259052</v>
+        <v>8.696782871406889</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>74.47023152828842</v>
+        <v>71.96117805077742</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>79.45207346500935</v>
+        <v>77.46484261176667</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>67.22114336747929</v>
+        <v>62.92672183802429</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>79.03952345877757</v>
+        <v>75.8948658555519</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>82.35085899440303</v>
+        <v>79.63021608355569</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>26.78428901237552</v>
+        <v>25.46392889923952</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>82.03607230872639</v>
+        <v>80.26567439424387</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>84.0485366992441</v>
+        <v>82.60070242804123</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>29.28622585576622</v>
+        <v>27.79256835809564</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>55.74641567973951</v>
+        <v>53.6334871123769</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>59.04265147382975</v>
+        <v>57.06188397261531</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>6.940238765753183</v>
+        <v>7.348513264133217</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>50.55507410225689</v>
+        <v>48.75041086861165</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>56.7405172315503</v>
+        <v>55.24270812090683</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>9.368388275876097</v>
+        <v>9.27054716216082</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>82.35698009732032</v>
+        <v>79.18197568307328</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>85.97495008684051</v>
+        <v>84.18627233730255</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>86.07637742437345</v>
+        <v>82.47594332192763</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>95.7978121722375</v>
+        <v>92.79387129768332</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>98.27390474536905</v>
+        <v>96.11448576460708</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>28.79901784083725</v>
+        <v>26.79334687224588</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>89.01434631708941</v>
+        <v>85.37616863615617</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>89.74093906026833</v>
+        <v>87.08096891997363</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>9.859250392666905</v>
+        <v>8.807136314994494</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>10.75167770830259</v>
+        <v>11.23072496455555</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>14.39519049632456</v>
+        <v>14.58629694819853</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>-2.405551621185587</v>
+        <v>-1.842834964714882</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>15.50718204534706</v>
+        <v>16.27305092195926</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>17.54496986418742</v>
+        <v>18.26651890799737</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>-0.08958664386784321</v>
+        <v>0.2978802991303731</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>23.22249847124713</v>
+        <v>22.58848278354711</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>24.03611552879085</v>
+        <v>24.22185226535981</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>29.83007871881647</v>
+        <v>28.55730132252232</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>36.4399844899471</v>
+        <v>35.03385875312863</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>36.32971912589892</v>
+        <v>35.53761845593027</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>11.46977954588079</v>
+        <v>10.9168316812599</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>24.01488597198788</v>
+        <v>21.94505606824326</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>21.79607075317994</v>
+        <v>20.29028177908084</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>13.82920928212357</v>
+        <v>13.54185522352092</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>31.10633278333054</v>
+        <v>29.89741569583273</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>36.68866596731614</v>
+        <v>35.46754868675004</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>4.93914667815536</v>
+        <v>5.532931464930311</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>29.56415628893465</v>
+        <v>28.31722635099605</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>38.87632431962035</v>
+        <v>37.6909799712886</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>6.671654994052361</v>
+        <v>6.868825203605098</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>47.30331355375664</v>
+        <v>44.83111927713925</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>57.86864421928428</v>
+        <v>55.35724476830818</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>47.02394172956265</v>
+        <v>43.64739925697835</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>56.8758573914204</v>
+        <v>53.38462000320803</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>60.58230227403172</v>
+        <v>57.26682073317815</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>15.5689888616012</v>
+        <v>14.86052627501094</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>55.86419027356805</v>
+        <v>52.86997425325609</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>60.58433427860194</v>
+        <v>57.8986248605223</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>19.78619756660957</v>
+        <v>19.63866258325396</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>38.62076753310734</v>
+        <v>37.40813134972679</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>46.36672690630405</v>
+        <v>45.87222378175033</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>7.600587540924725</v>
+        <v>7.445935893756428</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>42.20782119372726</v>
+        <v>40.56173209193048</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>51.78775956069428</v>
+        <v>49.91355138358382</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>11.24447128293581</v>
+        <v>10.74932973655137</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>67.02390624015271</v>
+        <v>64.55418855332105</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>72.10258671413327</v>
+        <v>69.26658614368581</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>76.84798811418833</v>
+        <v>73.05884138206204</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>85.94028207472074</v>
+        <v>82.58510795695317</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>87.58877795340634</v>
+        <v>85.49931100751715</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>32.09857588938039</v>
+        <v>29.68464056605171</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>82.16159884047838</v>
+        <v>77.83579884312931</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>85.94968504561452</v>
+        <v>83.38931894778517</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>7.049043496325115</v>
+        <v>6.474616179030289</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>10.1418528511275</v>
+        <v>9.998369677437193</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>11.98303091063081</v>
+        <v>11.9000411537926</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>-3.634682660934569</v>
+        <v>-2.801576931134758</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>13.36327090956442</v>
+        <v>13.15943508394206</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>14.28594677069311</v>
+        <v>14.2880073929191</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>-1.157685972514912</v>
+        <v>-0.5615283091703773</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>18.30366428532955</v>
+        <v>17.93566888402793</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>15.61281029500689</v>
+        <v>15.38231822989765</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>18.09566544323024</v>
+        <v>16.8629588536321</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>24.74825317513986</v>
+        <v>22.33134950741097</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>25.37884821556703</v>
+        <v>22.06938148109886</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>4.691109592970552</v>
+        <v>4.517187584279188</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>15.96409668710359</v>
+        <v>14.42326616233561</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>16.11725516297989</v>
+        <v>14.35303252980474</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>0.2591774617371208</v>
+        <v>0.2316623602405166</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>7.133509981882071</v>
+        <v>7.147536935819982</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>14.22998272670788</v>
+        <v>14.55355317098924</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>-4.776675363619855</v>
+        <v>-3.787304522231995</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>7.273006353604845</v>
+        <v>6.593655073804882</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>13.8933623413014</v>
+        <v>13.57055098165032</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>-4.885732666702832</v>
+        <v>-3.699898261334919</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>15.96507411695782</v>
+        <v>14.34374986351498</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>27.78459008637971</v>
+        <v>25.3800437320691</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>15.72235000373984</v>
+        <v>12.18024621499189</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>33.53816251870472</v>
+        <v>30.35149887318557</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>43.43491886323412</v>
+        <v>40.26476003939275</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>0.8768581028749942</v>
+        <v>-0.2846480588455726</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>23.00775641642295</v>
+        <v>21.29793856189152</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>22.56256252589255</v>
+        <v>17.83469711749095</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>4.894243165685499</v>
+        <v>4.57663973861094</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>16.03888021129545</v>
+        <v>16.31794038587783</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>31.30902404562553</v>
+        <v>31.30431926859662</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>-3.744480375452998</v>
+        <v>-3.186771563914686</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>16.69787962474702</v>
+        <v>15.70700807548482</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>33.37294517228004</v>
+        <v>32.30178716499387</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>-2.573479787694087</v>
+        <v>-1.836516468363026</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>29.32569361370966</v>
+        <v>26.62849531749571</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>53.01605374128695</v>
+        <v>53.92750208080709</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>37.36746149166783</v>
+        <v>31.39128175494511</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>55.69660307856311</v>
+        <v>54.35292735076757</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>76.05439835278571</v>
+        <v>74.08222088654993</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>4.962888503371701</v>
+        <v>3.380209677302357</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>41.57847070447035</v>
+        <v>37.85918109788986</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>48.88346407957084</v>
+        <v>46.32457337492379</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>19.06700808471767</v>
+        <v>19.20591238294429</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>25.45117771223883</v>
+        <v>24.13487094402973</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>37.99390139908658</v>
+        <v>37.55807225359904</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>7.513741002890374</v>
+        <v>7.697054550624081</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>49.77683798552678</v>
+        <v>48.43271037899108</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>50.49651653810071</v>
+        <v>49.72376431959829</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>11.710929224715</v>
+        <v>11.25173450257963</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>70.32311622440484</v>
+        <v>68.52659459604592</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>72.18972726323888</v>
+        <v>70.43042074377058</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>67.81678001287602</v>
+        <v>63.69947951362103</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>74.30686602465403</v>
+        <v>71.67580249067932</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>75.13871402571691</v>
+        <v>71.29906350771385</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>47.19660772808776</v>
+        <v>43.31828455526796</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>63.18630520803927</v>
+        <v>58.73297966385228</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>80.33882402672675</v>
+        <v>77.667932171053</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>18.31141980563918</v>
+        <v>16.96023993820996</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>37.54574294610024</v>
+        <v>35.7884241114758</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>39.22344012598616</v>
+        <v>38.71423958375743</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>1.942229114196305</v>
+        <v>3.372817365310485</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>36.55556781627693</v>
+        <v>34.97428880942874</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>39.67164619952068</v>
+        <v>39.6689317726897</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>5.342479955825819</v>
+        <v>5.800919706478076</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>59.30234523896435</v>
+        <v>56.28762787021429</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>65.28837432333621</v>
+        <v>63.31186048848478</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>55.68309853200239</v>
+        <v>51.48958182919199</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>62.62263934042593</v>
+        <v>59.72374625327892</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>64.32181548180154</v>
+        <v>61.86203891779046</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>28.69334724957687</v>
+        <v>26.69344069162912</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>67.15255430677828</v>
+        <v>63.84759872456803</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>67.6973511874499</v>
+        <v>65.31588684950687</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>21.26673499933933</v>
+        <v>20.66513994486368</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>39.77905836416287</v>
+        <v>38.76159315766528</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>45.92630909252988</v>
+        <v>46.35972418045015</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>5.592085520141666</v>
+        <v>6.985710340351797</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>47.11077382108078</v>
+        <v>45.4233091114325</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>51.41076185452215</v>
+        <v>50.92259979335336</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>9.75861911764482</v>
+        <v>10.29135545375629</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>75.92975977412637</v>
+        <v>73.307784061734</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>80.64371741529006</v>
+        <v>78.98242935765583</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>81.5828382414186</v>
+        <v>76.95592711437654</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>85.79144876355332</v>
+        <v>83.16276336524658</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>89.11343599615979</v>
+        <v>86.71590467381976</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>35.32927964022424</v>
+        <v>32.87012280765894</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>85.2838125343751</v>
+        <v>81.84402581479523</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>88.35666893262291</v>
+        <v>86.1864737796006</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>6.428057475302733</v>
+        <v>6.329416522665383</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>11.56078555570874</v>
+        <v>11.85258378725443</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>14.39666849828903</v>
+        <v>14.53760721447948</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-2.746467595096078</v>
+        <v>-2.234717481400537</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>9.220140028249112</v>
+        <v>10.06959222369208</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>12.86338486969564</v>
+        <v>13.74122755715787</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>-1.062800889195536</v>
+        <v>-0.6235959512912856</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>19.76372342569748</v>
+        <v>18.98532835230338</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>21.05957754062375</v>
+        <v>20.68475844524701</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>22.80350647925729</v>
+        <v>21.38446122164248</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>27.48761258600774</v>
+        <v>25.65337215734235</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>28.84293895320054</v>
+        <v>27.3210544406302</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>3.680018834319842</v>
+        <v>4.069560722417691</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>17.65390879567479</v>
+        <v>15.99290205685766</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>21.20947571787172</v>
+        <v>19.84066034650738</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>7.031542731474882</v>
+        <v>6.43586704905475</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>23.9715838280906</v>
+        <v>21.91497632436175</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>29.5775126072533</v>
+        <v>28.09421445591787</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>3.018081322833741</v>
+        <v>2.656837983962397</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>20.35065450786013</v>
+        <v>18.49566064725508</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>29.7012725297259</v>
+        <v>28.03181205236823</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>4.044731442741448</v>
+        <v>3.531024174819496</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>36.70951401483087</v>
+        <v>33.12882822267493</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>46.41509167966404</v>
+        <v>44.18770317292891</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>33.51566475067619</v>
+        <v>29.87951047283624</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>41.44514312377513</v>
+        <v>37.73073883490124</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>46.39374347556118</v>
+        <v>42.9620635257204</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>6.449942178163649</v>
+        <v>5.584920687830799</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>39.54658268391941</v>
+        <v>36.41290447831751</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>48.2153283485943</v>
+        <v>44.5424623762913</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>16.87992359196143</v>
+        <v>15.97785414247909</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>35.46490923847854</v>
+        <v>33.0066787023934</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>43.26001697230776</v>
+        <v>41.41628701914941</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>8.914526869977458</v>
+        <v>8.333113642704735</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>34.69862802062445</v>
+        <v>32.24065546167133</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>44.55027284584525</v>
+        <v>41.92248409596854</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>15.77024454416073</v>
+        <v>14.54490239097436</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>57.24179232123509</v>
+        <v>51.94907861695249</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>65.42547873472175</v>
+        <v>61.85374733202708</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>61.67715856668049</v>
+        <v>56.28023831485336</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>71.21276882997036</v>
+        <v>65.59419420958164</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>80.52985963236904</v>
+        <v>77.71443538328083</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>26.13936364340807</v>
+        <v>23.18229308685144</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>65.77599360867831</v>
+        <v>60.69150376299048</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>73.28113425539362</v>
+        <v>69.45710204801121</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>3.290307260638517</v>
+        <v>3.033895991211203</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>3.246604670131546</v>
+        <v>3.655653921981706</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>6.432951660451234</v>
+        <v>6.947098157392777</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>-4.769217867872097</v>
+        <v>-3.331157755002824</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>7.115924534269016</v>
+        <v>7.294232479233738</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>9.233368241679411</v>
+        <v>10.24172861418028</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>-9.361769294330809</v>
+        <v>-4.249680306770831</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>9.854251988353699</v>
+        <v>9.004679640906875</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>11.73958978656733</v>
+        <v>12.05369704065785</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>12.59247865669348</v>
+        <v>12.06619630741511</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>16.6149891079696</v>
+        <v>15.3171062798893</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>18.86641650325739</v>
+        <v>18.62708939022011</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>-2.743854909862613</v>
+        <v>-1.50053317223524</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>8.710784055802389</v>
+        <v>7.559974692619669</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>9.499194619231854</v>
+        <v>9.607006719514914</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>18.97526103059286</v>
+        <v>18.69670792428793</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>36.00750368958219</v>
+        <v>35.00207125856736</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>40.10973114142864</v>
+        <v>39.6958059078112</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>6.514619791635635</v>
+        <v>6.785110790531235</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>34.91382104606861</v>
+        <v>33.04911546323724</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>42.63294257388221</v>
+        <v>41.42472757394636</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>7.928080563470481</v>
+        <v>8.224935705119869</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>52.9307161420295</v>
+        <v>50.91191396572748</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>63.61650063315285</v>
+        <v>62.16823905986439</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>52.47987752147856</v>
+        <v>49.76946849569033</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>61.37827579602066</v>
+        <v>58.50431130274004</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>62.18109785920568</v>
+        <v>59.32187311202908</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>20.47327106483603</v>
+        <v>19.89608863254648</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>60.62805343885445</v>
+        <v>58.27013108177438</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>62.58853721707577</v>
+        <v>60.28373860560585</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>25.92299377096295</v>
+        <v>25.68478918690376</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>45.74230059633101</v>
+        <v>44.64537557366347</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>52.05213743608273</v>
+        <v>52.3688540901069</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>7.604465127573683</v>
+        <v>7.489957865122804</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>48.55840184723036</v>
+        <v>46.9740454382441</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>54.91538879525439</v>
+        <v>53.49806122365025</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>9.156070380434734</v>
+        <v>8.929357910640778</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>69.8940707824972</v>
+        <v>67.97798960011562</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>75.2705408792354</v>
+        <v>73.88426265298854</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>80.64911351231443</v>
+        <v>78.77844617988022</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>91.50282271017628</v>
+        <v>88.62382561510836</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>90.76116840442837</v>
+        <v>88.62351220708184</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>26.63291306196888</v>
+        <v>24.71739574157034</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>84.57488019266006</v>
+        <v>82.3655333997381</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>82.3743467389525</v>
+        <v>80.4539088786052</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>11.36618808116907</v>
+        <v>11.29527998439658</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>14.21932903430682</v>
+        <v>14.52411487370027</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>15.84125682443349</v>
+        <v>16.34983765491104</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>-1.983091123489654</v>
+        <v>-1.719153122898625</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>13.49014486613661</v>
+        <v>13.84738662405309</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>15.70425810126112</v>
+        <v>16.59645739533811</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>1.493274713434037</v>
+        <v>2.583146435820261</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>22.41587091274014</v>
+        <v>22.5787922186901</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>22.34922253762635</v>
+        <v>22.83025790932967</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>24.0177001454876</v>
+        <v>23.01998568802614</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>30.85097397729005</v>
+        <v>29.51893461009134</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>33.70607703020129</v>
+        <v>32.26644781009999</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>12.61440071945345</v>
+        <v>12.09406528261558</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>23.74386641478165</v>
+        <v>21.99373169204769</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>27.3171497392134</v>
+        <v>26.07846739508413</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>4.406181794258242</v>
+        <v>4.393913823587152</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>13.21680421386469</v>
+        <v>13.20641717248676</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>20.27982591204659</v>
+        <v>20.11287665160072</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>-2.636041205867787</v>
+        <v>-2.640205283210111</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>10.28340396229719</v>
+        <v>9.14162302297046</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>21.43928957061858</v>
+        <v>20.6525274926316</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>-1.712808846657985</v>
+        <v>-1.823619708920194</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>17.97067372126664</v>
+        <v>16.66322764752035</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>37.1212800397788</v>
+        <v>35.8617123996126</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>19.16790786340674</v>
+        <v>15.34759443545192</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>29.92295042114642</v>
+        <v>28.10391472395197</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>35.46780194305657</v>
+        <v>33.26033746822196</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>3.595975215719118</v>
+        <v>3.216217071225884</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>24.88757186179921</v>
+        <v>23.29315492644687</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>33.42240719881489</v>
+        <v>31.37406228543384</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>18.31937218287405</v>
+        <v>17.6001768474983</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>31.46319217868632</v>
+        <v>30.47506374787881</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>36.94230126077525</v>
+        <v>36.48720046179177</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>1.584908183245059</v>
+        <v>1.472887877774443</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>27.31732260271058</v>
+        <v>25.73995522954272</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>34.6253583156703</v>
+        <v>33.18852538287046</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>8.432960002119149</v>
+        <v>7.465806240497201</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>48.67268251573642</v>
+        <v>46.26319005932875</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>57.56533078196043</v>
+        <v>55.87424158356031</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>53.65055026375549</v>
+        <v>50.74279489629008</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>63.31966070410883</v>
+        <v>60.84897043178937</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>66.20603530002658</v>
+        <v>63.97921643461946</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>26.94468387948519</v>
+        <v>25.83323180814507</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>57.80798494793319</v>
+        <v>55.07351883837704</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>59.75543565380344</v>
+        <v>57.77924293334753</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>2.682265976936279</v>
+        <v>3.435426965347215</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>3.896755894055836</v>
+        <v>5.170464726583894</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>2.857857388162703</v>
+        <v>4.151897270461639</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-4.095945551202266</v>
+        <v>-3.304151800670223</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>3.268820057946648</v>
+        <v>4.313289039471101</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>4.654432109305056</v>
+        <v>6.416006121509803</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-4.429820845991426</v>
+        <v>-2.973101586336373</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>6.118092833134828</v>
+        <v>7.014742799543512</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>5.273934090883152</v>
+        <v>7.34586905492392</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>7.020412205721509</v>
+        <v>7.804296260099871</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>9.656491529717858</v>
+        <v>9.951858659907412</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>12.50634396064085</v>
+        <v>13.21091040052138</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>2.136991858576064</v>
+        <v>2.935794617305021</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>7.3545997241031</v>
+        <v>6.863163726855376</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>8.964833466406912</v>
+        <v>9.734278712677444</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-1.709426073380186</v>
+        <v>-1.144497680944205</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>3.369068518726735</v>
+        <v>4.093167589431697</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>4.052156615629908</v>
+        <v>4.694976343568893</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-4.437083775434754</v>
+        <v>-3.624365565488066</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>2.15537582806553</v>
+        <v>1.549638040688151</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>8.511748109537649</v>
+        <v>8.348340010563664</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>-4.118012492535595</v>
+        <v>-3.277768536270752</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>6.514137039076974</v>
+        <v>5.953983090070036</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>12.59536155282856</v>
+        <v>11.84302402802086</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>5.290500957033405</v>
+        <v>4.529204490457655</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>8.147287056698563</v>
+        <v>7.175269823063051</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>10.90076517461599</v>
+        <v>9.956443012558179</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>-3.625200340685932</v>
+        <v>-2.988564964569473</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>8.726206305737673</v>
+        <v>8.357115841068531</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>10.35910072121393</v>
+        <v>9.88087928688898</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>17.13615763925192</v>
+        <v>17.21280287199596</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>23.65659930542366</v>
+        <v>23.16248453769971</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>26.3399293308844</v>
+        <v>26.73295190800273</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>1.710964202104023</v>
+        <v>1.349017786466259</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>19.57022593631489</v>
+        <v>18.37103653274728</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>25.67126311633202</v>
+        <v>24.62507048573994</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>9.020656811584498</v>
+        <v>8.844765344745792</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>34.85641713911992</v>
+        <v>32.34179952679531</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>37.87349680027122</v>
+        <v>37.17794669078724</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>41.87843618875338</v>
+        <v>40.07542307323889</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>42.80019216267318</v>
+        <v>40.35529644863072</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>46.83230443361327</v>
+        <v>44.94462221215426</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>23.46488326045726</v>
+        <v>22.16745323219162</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>37.87419603303641</v>
+        <v>35.53713730396423</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>41.58366080939635</v>
+        <v>40.34127598267723</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>20.43370169481445</v>
+        <v>18.82322770739468</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>32.1294833624663</v>
+        <v>31.14851085955834</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>35.19816501655789</v>
+        <v>33.9091635546716</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>3.534396483931925</v>
+        <v>3.556037923004926</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>28.25550567390936</v>
+        <v>27.41445952114395</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>32.69546163716723</v>
+        <v>31.61039789822873</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>8.444776427786678</v>
+        <v>7.931751253565508</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>44.20824272211215</v>
+        <v>41.9880442522987</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>47.12347944908841</v>
+        <v>46.71180012800438</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>46.58667909795689</v>
+        <v>43.10748245255598</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>55.61669118908339</v>
+        <v>52.60631749664314</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>59.61217442771547</v>
+        <v>56.37361703663854</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>30.98729281425622</v>
+        <v>29.43950780773189</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>55.57562730285014</v>
+        <v>52.04730811299231</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>59.7208909973844</v>
+        <v>56.9647113513916</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>12.17888672014648</v>
+        <v>11.90222444071613</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>24.98969729072194</v>
+        <v>24.11808990707853</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>29.70843174911392</v>
+        <v>29.78641928243627</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>-1.468773799041035</v>
+        <v>-1.413820111694246</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>18.3527694485051</v>
+        <v>17.15184976162492</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>24.67505986256911</v>
+        <v>24.15690756318568</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>1.794906736679852</v>
+        <v>1.517732613830248</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>36.60941930266856</v>
+        <v>34.10593231591833</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>43.12788492900463</v>
+        <v>40.06368533346492</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>38.64681155149222</v>
+        <v>35.30630565891514</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>45.42796544396047</v>
+        <v>41.8815643078805</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>47.02807871323127</v>
+        <v>43.59524936358395</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>19.90949381851008</v>
+        <v>18.27243725724617</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>50.83421641479082</v>
+        <v>47.66884131608217</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>54.50329705056851</v>
+        <v>51.82691718339689</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>25.79007241136803</v>
+        <v>24.41976550030195</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>41.2812772071066</v>
+        <v>39.60815055463908</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>49.65516961364193</v>
+        <v>49.38467063476172</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>7.457597384739735</v>
+        <v>7.138646878037004</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>35.51455748428798</v>
+        <v>33.86489290436121</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>43.08056915791245</v>
+        <v>41.25582839831884</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>13.03514583940708</v>
+        <v>12.22143377050242</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>63.54117946750848</v>
+        <v>60.39808888955888</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>68.78237117931248</v>
+        <v>66.50285339325873</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>76.72718463697602</v>
+        <v>72.39439913151388</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>80.20532887176357</v>
+        <v>76.38007660536218</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>82.18561010815168</v>
+        <v>78.66089777879601</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>33.92741209704394</v>
+        <v>32.62071577972285</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>72.75828226950954</v>
+        <v>68.63318750493072</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>79.54259926355931</v>
+        <v>77.1511859257844</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>19.16903408149593</v>
+        <v>19.82487142886921</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>38.25803445494955</v>
+        <v>36.85262143269745</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>42.27749559475643</v>
+        <v>41.34906430734743</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>8.337190407397504</v>
+        <v>8.469712426187417</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>43.16175603442576</v>
+        <v>42.04057237924153</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>45.99194420879506</v>
+        <v>45.50608879739649</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>10.60974008180472</v>
+        <v>11.45689451242162</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>64.06411862668615</v>
+        <v>62.68669553017111</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>65.39159628026312</v>
+        <v>65.19968304490993</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>68.15289563175044</v>
+        <v>68.35033486010266</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>75.53946543625459</v>
+        <v>73.4961738022272</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>76.13002342569554</v>
+        <v>74.28290780609696</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>21.42336457396055</v>
+        <v>21.55876302197822</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>64.25685589104299</v>
+        <v>61.39117155418867</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>68.75033715951578</v>
+        <v>66.380830900936</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>15.13816761644225</v>
+        <v>14.68769782655602</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>35.49585434708577</v>
+        <v>33.22663977624437</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>39.57178334147378</v>
+        <v>38.23500504725557</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>5.448512378383551</v>
+        <v>5.651844006743936</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>32.98486495487585</v>
+        <v>30.83416372623557</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>40.41086343976301</v>
+        <v>39.19657913434915</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>6.060994734186977</v>
+        <v>6.106724983193867</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>51.77694953367027</v>
+        <v>48.90908220831523</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>61.67223692046794</v>
+        <v>60.19323559083826</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>51.57576512359914</v>
+        <v>48.43314273360878</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>60.11245427930353</v>
+        <v>57.06548298361417</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>60.32757830135986</v>
+        <v>57.90152082085919</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>15.34599244411986</v>
+        <v>14.6419878724127</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>60.48826659253692</v>
+        <v>57.86267700728246</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>66.2449638911708</v>
+        <v>63.52677979578429</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>17.39596513256238</v>
+        <v>16.68799251334138</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>40.69062309223706</v>
+        <v>38.4277088429393</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>47.6790845749466</v>
+        <v>46.27876725748381</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>3.960791419642607</v>
+        <v>4.298257858135447</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>41.91053096196845</v>
+        <v>39.86273306185372</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>49.24684792634923</v>
+        <v>47.61894905525988</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>5.817761038949776</v>
+        <v>5.343435968452678</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>62.86844709756038</v>
+        <v>59.76296482314106</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>73.9236320736599</v>
+        <v>72.22402346525303</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>75.65764243291258</v>
+        <v>71.41481022236044</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>84.03693884631095</v>
+        <v>80.45126766922897</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>90.15217101016843</v>
+        <v>87.7387657804847</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>22.16265361201003</v>
+        <v>19.76300346033312</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>78.30807892150011</v>
+        <v>74.31341546642537</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>84.53852526781583</v>
+        <v>81.5955173967738</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>21.82620312474339</v>
+        <v>20.28205581599394</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>33.16391649993576</v>
+        <v>31.65969585395296</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>39.53699365521467</v>
+        <v>38.57974649453938</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>6.753815637868456</v>
+        <v>6.750871479356071</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>47.22497872828001</v>
+        <v>46.35324449308388</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>49.70576322881563</v>
+        <v>49.62808720554322</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>10.04121458342129</v>
+        <v>8.751343623272508</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>65.52198673675524</v>
+        <v>66.05315222761706</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>65.46233605062609</v>
+        <v>67.89237470256683</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>60.15168404303434</v>
+        <v>59.15221741546419</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>61.52037840149204</v>
+        <v>60.02035363328044</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>63.89817716929895</v>
+        <v>62.78057221259377</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>29.97118348380716</v>
+        <v>28.58471301545931</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>55.50704135541112</v>
+        <v>51.83004921476101</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>71.33725008010715</v>
+        <v>68.83413126626256</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>22.43451001558589</v>
+        <v>22.02301380107269</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>37.89391582239134</v>
+        <v>35.83569542001392</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>41.0049125360317</v>
+        <v>40.53528184213933</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>3.471651095241892</v>
+        <v>4.003859148365468</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>35.14645812401318</v>
+        <v>33.39057370687978</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>41.84543176992873</v>
+        <v>41.10453752399719</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>4.342451150818221</v>
+        <v>4.101420597478469</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>57.769711937829</v>
+        <v>54.99017520521119</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>68.25615589871963</v>
+        <v>67.2495471346586</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>57.80418590357691</v>
+        <v>53.42404184792434</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>65.26237033933948</v>
+        <v>61.75571419507266</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>66.65454909016212</v>
+        <v>63.76318986147136</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>24.13231897234683</v>
+        <v>23.38438445180468</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>68.27865201997456</v>
+        <v>65.04963633355378</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>73.46956180317193</v>
+        <v>70.18594280973981</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>25.33465700451438</v>
+        <v>24.05136203767549</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>44.61164880410946</v>
+        <v>42.02037297968457</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>48.14004158071948</v>
+        <v>47.48517355062192</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>4.129363784398198</v>
+        <v>4.686021542442621</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>43.0326145684703</v>
+        <v>41.33312625509513</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>49.62723212895042</v>
+        <v>48.66571392406361</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>6.397323265123255</v>
+        <v>5.300331620087707</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>72.12614542737067</v>
+        <v>67.80240212088985</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>76.34584489229296</v>
+        <v>74.33690726064947</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>83.28142567916571</v>
+        <v>77.99842656572694</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>87.78317839911097</v>
+        <v>83.49032784928457</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>91.21006500590822</v>
+        <v>89.29468140084832</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>25.95307219180945</v>
+        <v>23.91670241488147</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>82.59232360655665</v>
+        <v>77.94191123560897</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>87.29594146781525</v>
+        <v>83.47019993566964</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>24.82978716607692</v>
+        <v>24.30665396849353</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>33.03496992955142</v>
+        <v>30.93693682442457</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>39.52525848576204</v>
+        <v>38.79910409327998</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>17.72406945442105</v>
+        <v>16.03022395680623</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>59.91783229975944</v>
+        <v>60.00519244681011</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>59.94091715498404</v>
+        <v>58.58092996107189</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>13.66240241664856</v>
+        <v>13.03496810773352</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>64.58206532046626</v>
+        <v>65.17159649836869</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>60.57878940378447</v>
+        <v>63.64281121993416</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>59.31760520253928</v>
+        <v>57.99239345207913</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>66.32599500638393</v>
+        <v>64.41396910869642</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>66.51653892399189</v>
+        <v>65.31836715575972</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>40.83017862063739</v>
+        <v>40.64668728269162</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>52.53030204960642</v>
+        <v>46.73576397839817</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>68.70846379766157</v>
+        <v>67.90718347203413</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>25.72795457460142</v>
+        <v>25.24211182640895</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>35.93904478103214</v>
+        <v>34.40548355355177</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>43.53217500505797</v>
+        <v>42.59821936537642</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>34.01358421219108</v>
+        <v>35.7722818305355</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>54.74370275325919</v>
+        <v>53.91003845286072</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>60.88628750653396</v>
+        <v>59.21946510341775</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>10.20774837310891</v>
+        <v>9.744479506031677</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>57.41190193385488</v>
+        <v>56.57584863024783</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>67.3834965347847</v>
+        <v>66.03140885633846</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>55.51294832292685</v>
+        <v>51.92240818892948</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>64.62737465338692</v>
+        <v>61.61499847074184</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>64.46184362134026</v>
+        <v>61.74251638014366</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>30.86170379390394</v>
+        <v>29.66088653748615</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>66.2108148956217</v>
+        <v>62.92867298998597</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>72.58971737096323</v>
+        <v>69.64665564225794</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>29.48303785777263</v>
+        <v>28.15090847222059</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>44.90945443209769</v>
+        <v>42.9979404247767</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>48.00402132980923</v>
+        <v>47.3421798409023</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>37.67588894899065</v>
+        <v>37.53128594849495</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>64.20271205284675</v>
+        <v>62.35601722268136</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>67.94664552953256</v>
+        <v>65.23101156713008</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>10.83378369134178</v>
+        <v>10.69086616654529</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>73.20526668403521</v>
+        <v>70.6517278732459</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>76.22051093088498</v>
+        <v>74.40547563679816</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>84.77526630019506</v>
+        <v>81.39678785353628</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>88.95381086278215</v>
+        <v>85.1365675039382</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>93.77033185708478</v>
+        <v>92.00825111211671</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>38.39598895526812</v>
+        <v>36.17601524641054</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>84.83078096865657</v>
+        <v>81.00069262140151</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>90.34741037877656</v>
+        <v>87.22276316346617</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>18.7624116044476</v>
+        <v>17.38820517548113</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>36.5667348245052</v>
+        <v>34.73636628835435</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>43.01248905287091</v>
+        <v>41.7390361169509</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>5.151399901681017</v>
+        <v>4.584125660382465</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>35.86245250846113</v>
+        <v>32.70369987040735</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>41.62149704713202</v>
+        <v>40.14573573148924</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>5.266450524145171</v>
+        <v>5.074976698863139</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>58.1707559565512</v>
+        <v>55.65743439704165</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>61.82690863697677</v>
+        <v>60.32294047892155</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>64.42328311735722</v>
+        <v>61.328056819742</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>70.76212112503229</v>
+        <v>67.25703709653507</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>74.22199729225858</v>
+        <v>70.97006186788352</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>11.3751141872886</v>
+        <v>10.02182268122807</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>62.60564148866405</v>
+        <v>58.81152437212693</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>67.95666735577849</v>
+        <v>64.41170661182684</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>12.4714364135752</v>
+        <v>11.95381070295702</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>34.60519517040067</v>
+        <v>32.86409748474389</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>37.23397866567849</v>
+        <v>36.64713420412825</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>1.424885316628757</v>
+        <v>1.612457323572446</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>31.14214692267394</v>
+        <v>28.82604181916274</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>37.00588156733066</v>
+        <v>35.93564464892038</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>1.29977738808439</v>
+        <v>1.337079179212317</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>51.2321500224602</v>
+        <v>48.18369597920569</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>59.35231080888288</v>
+        <v>57.56612017037281</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>51.26805082051783</v>
+        <v>47.06046981682633</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>59.14266188477765</v>
+        <v>55.24859621609472</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>60.39511089593385</v>
+        <v>57.172965087316</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>8.162379596330741</v>
+        <v>7.085757355507106</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>54.98725684957454</v>
+        <v>50.06938905667877</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>63.76720954259366</v>
+        <v>60.57386876065898</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>14.57142533843771</v>
+        <v>13.80097349591806</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>39.27802842770954</v>
+        <v>37.69933910071326</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>45.57079493345331</v>
+        <v>45.34683227930283</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>2.309544924143207</v>
+        <v>1.908353949639949</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>41.41122702376947</v>
+        <v>38.75959372140125</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>47.91024608066694</v>
+        <v>45.61629381678621</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>3.38617733723477</v>
+        <v>2.606563303928642</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>63.03384926789887</v>
+        <v>58.77020604436007</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>71.47327191818268</v>
+        <v>69.56199045805108</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>75.52521413105606</v>
+        <v>70.67842442376497</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>83.82260486013779</v>
+        <v>79.20246017490359</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>90.33128502051161</v>
+        <v>86.82022580666877</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>13.23162160676891</v>
+        <v>9.536803557796141</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>76.07882053572402</v>
+        <v>71.57488085492854</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>85.7105602465989</v>
+        <v>82.3016110462398</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>13.72552708011991</v>
+        <v>13.26716928387512</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>17.0150216251259</v>
+        <v>16.75504560977152</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>18.33546454337552</v>
+        <v>18.4829410560362</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>-1.811805558015262</v>
+        <v>-1.274173087144465</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>18.61807263917043</v>
+        <v>19.0645763353968</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>20.06560016939442</v>
+        <v>20.17593028722517</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>2.080429617118359</v>
+        <v>2.546009654155746</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>28.96206393519895</v>
+        <v>28.21501639570681</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>30.05924723647608</v>
+        <v>30.30857341493187</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>32.09646243521548</v>
+        <v>30.38075268839724</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>36.05710380857058</v>
+        <v>34.52851939897347</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>38.78608902917539</v>
+        <v>37.03500859531893</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>17.24943202982209</v>
+        <v>17.15623344676375</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>25.54420007150735</v>
+        <v>23.68193372803574</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>29.1431194204409</v>
+        <v>28.08531471839554</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>13.05685160812956</v>
+        <v>12.74365384575836</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>29.66634297489573</v>
+        <v>27.6536632061867</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>35.06632249696617</v>
+        <v>33.9473649532291</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>4.716826395781933</v>
+        <v>5.120740048223166</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>29.29803286156352</v>
+        <v>27.40901746016462</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>38.09500591475479</v>
+        <v>36.63579279042004</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>6.7648333791341</v>
+        <v>6.530295426791053</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>47.81882470820125</v>
+        <v>44.45692591286942</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>58.79543130779284</v>
+        <v>55.94650179328652</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>46.78730539798126</v>
+        <v>42.82917531047659</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>51.86830807266733</v>
+        <v>48.38511485939388</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>61.39933658067451</v>
+        <v>58.16207095772309</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>12.04167501254587</v>
+        <v>11.30993392598845</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>51.87505815477915</v>
+        <v>48.57595632055389</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>59.49714707507215</v>
+        <v>56.17552239439989</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>20.16625307028211</v>
+        <v>19.03780715259364</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>39.42456829221618</v>
+        <v>36.77003855810948</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>45.72546083685011</v>
+        <v>44.37987243481221</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>7.826416170546857</v>
+        <v>7.171335119476506</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>39.69103846400625</v>
+        <v>36.93248393583752</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>49.64792645368978</v>
+        <v>47.20138004479338</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>14.75306950079501</v>
+        <v>13.2419342069328</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>63.25777682686279</v>
+        <v>58.59432069461903</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>72.4335209308019</v>
+        <v>69.42334671646303</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>69.69046606141241</v>
+        <v>63.08208880218226</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>70.11498012320831</v>
+        <v>65.43071811768785</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>84.03575973812188</v>
+        <v>80.10153876426359</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>26.71668356527863</v>
+        <v>23.90106035362135</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>70.50270977265338</v>
+        <v>64.02337930459528</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>81.00751853783112</v>
+        <v>77.20643551059837</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>14.78047317314454</v>
+        <v>14.56104205178642</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>17.39064350591357</v>
+        <v>18.16191123833334</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>19.59669762659677</v>
+        <v>19.98948918875494</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>-0.4542110034553382</v>
+        <v>0.407993053018302</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>20.56161721865267</v>
+        <v>20.33034613561786</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>24.96163900418007</v>
+        <v>22.41897830144072</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>3.650579159146922</v>
+        <v>4.810420644929156</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>33.37834190152239</v>
+        <v>32.33983415216101</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>32.45267078205005</v>
+        <v>33.02556756794255</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>40.25123536071111</v>
+        <v>38.54773792749682</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>48.06353365277689</v>
+        <v>46.66051427401119</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>50.00868977236834</v>
+        <v>48.83049174018521</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>17.5077991664638</v>
+        <v>16.99827723299634</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>30.64731191769112</v>
+        <v>26.45820996432388</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>40.75568608875871</v>
+        <v>37.9691796010564</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>7.57491055478701</v>
+        <v>8.230745744444707</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>16.51264246792385</v>
+        <v>16.35329123255168</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>32.31126257269864</v>
+        <v>32.88419401242133</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>3.257568245881561</v>
+        <v>2.968505007982536</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>17.51235454557827</v>
+        <v>14.81280232180817</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>39.6212303027071</v>
+        <v>38.9057470584054</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>-0.9964632547797336</v>
+        <v>0.2529195097378683</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>31.75616465216999</v>
+        <v>30.08334268512096</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>56.48017431697012</v>
+        <v>56.14891400753252</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>38.21183610230555</v>
+        <v>34.10786860333134</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>51.86022469273996</v>
+        <v>48.74913468484129</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>59.49036930868752</v>
+        <v>57.61113254920451</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>8.246096006809747</v>
+        <v>8.539997752277664</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>48.19448368670217</v>
+        <v>45.81631876598301</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>58.98380692843493</v>
+        <v>56.64318874197461</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>16.91363240262521</v>
+        <v>16.71977222874919</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>28.02317640154925</v>
+        <v>27.80332487421983</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>37.71942763459308</v>
+        <v>38.1123748117861</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>7.079248672869884</v>
+        <v>7.084023738651293</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>25.06246751498184</v>
+        <v>23.01022733903797</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>43.40126936195895</v>
+        <v>42.51742053909859</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>2.435812874413092</v>
+        <v>4.792959273614461</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>46.92479869360925</v>
+        <v>44.37233253211843</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>63.38102400552992</v>
+        <v>61.63306970416704</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>66.42159567928262</v>
+        <v>61.81343255694394</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>72.12241039561533</v>
+        <v>67.03056269335171</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>81.64765211445007</v>
+        <v>78.72678752630836</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>17.53804369061073</v>
+        <v>15.55622360932441</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>60.19481181788341</v>
+        <v>53.3426588393712</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>73.09849512145054</v>
+        <v>69.82230664899667</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>23.44635174937056</v>
+        <v>23.58245011099596</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>35.09168408001074</v>
+        <v>34.10999241949002</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>39.63660952775115</v>
+        <v>38.96996614707241</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>7.624821546939561</v>
+        <v>7.803428480176194</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>48.81547248784031</v>
+        <v>48.17504410147619</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>50.68055493983579</v>
+        <v>50.24722712908657</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>12.37052988639733</v>
+        <v>12.24073034569973</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>69.30352426359345</v>
+        <v>68.06489488551158</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>67.53345717625503</v>
+        <v>67.1078167243533</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>60.59184978328878</v>
+        <v>59.78804328555115</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>69.00340392993846</v>
+        <v>66.89916937941234</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>70.33599011689023</v>
+        <v>68.24085214341362</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>40.53517366182775</v>
+        <v>37.16086392357531</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>58.38008295469487</v>
+        <v>53.64811103824264</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>77.86480351615192</v>
+        <v>76.69996278612597</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>26.63213042954806</v>
+        <v>25.91441320541153</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>41.65967736166968</v>
+        <v>39.51468227218253</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>43.98742190079595</v>
+        <v>42.93046924831591</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>7.014733357295757</v>
+        <v>7.30092585726511</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>38.85207235731943</v>
+        <v>37.43204207944338</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>42.93605362234421</v>
+        <v>42.17432351005082</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>8.901438460342792</v>
+        <v>9.029721319751371</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>60.30453807399095</v>
+        <v>58.20485521589764</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>66.50638573832946</v>
+        <v>64.67964353328632</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>57.20654465059152</v>
+        <v>54.60059360759234</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>62.56891761746267</v>
+        <v>59.86567293216482</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>65.34591065094124</v>
+        <v>62.99334941619303</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>28.40201503507235</v>
+        <v>26.95394175419831</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>66.14715292004399</v>
+        <v>63.58189782664992</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>68.44142932582638</v>
+        <v>65.91819806916206</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>25.67548541060256</v>
+        <v>24.68907396254779</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>43.7673338005354</v>
+        <v>41.88795928592678</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>47.19993397566932</v>
+        <v>46.56350826206305</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>8.02763633676091</v>
+        <v>8.022040994123078</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>46.33841392690975</v>
+        <v>44.34568252473459</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>50.34994700869739</v>
+        <v>49.00328696129695</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>8.950264602107037</v>
+        <v>8.676673530411772</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>72.24439659769287</v>
+        <v>69.11619719460649</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>77.38245118952715</v>
+        <v>75.27056234163187</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>82.74325461895246</v>
+        <v>79.03876923943035</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>85.37230153648649</v>
+        <v>81.94699006262637</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>87.66341584363475</v>
+        <v>85.44105991640333</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>34.82483272797944</v>
+        <v>32.03567077768383</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>79.98512155328017</v>
+        <v>75.48318807771189</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>83.20293752496009</v>
+        <v>80.89674441182827</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>17.60431155569033</v>
+        <v>16.25855059282868</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>34.92140548515406</v>
+        <v>32.87597743628339</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>39.57987453842412</v>
+        <v>38.25283943099321</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>6.474698014289263</v>
+        <v>6.145846216093769</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>40.09793279608588</v>
+        <v>37.67349758470965</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>41.84266245995731</v>
+        <v>40.30246013680482</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>6.145319577041267</v>
+        <v>6.011314715736727</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>56.94028448463965</v>
+        <v>54.24387650500495</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>60.05592223396754</v>
+        <v>58.28335945905492</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>60.72785011779672</v>
+        <v>57.57025429392122</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>71.79837349884949</v>
+        <v>67.97052636932638</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>69.43363780487432</v>
+        <v>66.64764928596016</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>11.59906423901455</v>
+        <v>10.38947911185404</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>61.087338459146</v>
+        <v>56.48176653662932</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>63.92739773723834</v>
+        <v>60.9162625704219</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>12.51871667902024</v>
+        <v>12.5692069244503</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>34.28474765336421</v>
+        <v>32.68415682227609</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>36.38541437107897</v>
+        <v>35.79860031297623</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>4.410590121238176</v>
+        <v>5.064546407218216</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>34.89451131378456</v>
+        <v>32.25876704983084</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>40.00087744614333</v>
+        <v>38.91564331040551</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>5.229584133475804</v>
+        <v>5.697139774541</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>53.55982420917796</v>
+        <v>50.35803975777502</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>63.81223069932541</v>
+        <v>62.05551472856429</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>55.42542357339958</v>
+        <v>51.54264036869827</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>63.59107255421975</v>
+        <v>60.17172766438992</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>62.65167931252509</v>
+        <v>60.00023662267285</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>10.82041778056614</v>
+        <v>10.65329541874591</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>63.75823249980323</v>
+        <v>60.49647204648349</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>66.58663691541285</v>
+        <v>63.88287057740202</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>13.95862806000781</v>
+        <v>12.86569619977044</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>37.91997220550815</v>
+        <v>35.98089778385388</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>43.52512210416429</v>
+        <v>43.09719153160579</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>2.869714185897234</v>
+        <v>2.591383813153104</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>42.1346529586762</v>
+        <v>39.12686567657799</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>47.21260973880655</v>
+        <v>44.92039441524143</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>4.64328486966129</v>
+        <v>4.009670075639331</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>60.776092489475</v>
+        <v>56.31818400658666</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>70.13103798724239</v>
+        <v>67.49016822639852</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>72.47038012110535</v>
+        <v>66.46135894773784</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>80.90776390889432</v>
+        <v>77.02997726633328</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>87.5085429521054</v>
+        <v>84.41100471768728</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>12.60011058446606</v>
+        <v>9.416577394022344</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>70.53883400562002</v>
+        <v>65.99056455831239</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>80.14823360107324</v>
+        <v>76.88599099613744</v>
       </c>
     </row>
   </sheetData>
